--- a/static/static/base.xlsx
+++ b/static/static/base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programming\Projects\LEM\Automatización huerto\Proyecto\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Huato App v2\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B6377-7856-4115-A44F-65543517A69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A59A6-980C-4F4F-BAC9-5CA151A45042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>Laboratorio Ensayos de Materiales</t>
   </si>
@@ -204,12 +204,6 @@
   </si>
   <si>
     <t>Este documento es para uso interno del Laboratorio Ensayos de Materiales del Instituto Tecnológico de Santo Domingo. No debe ser reproducido por ningún medio sin autorización previa. Es responsabilidad de todo usuario de documentos controlados, verificar que está utilizando la versión vigente, la cual lleva un sello de color azul que lo identifica como documento controlado. Si requiere asistencia, contacte a INTEC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROL ESTADISTICO TEMPERATURA </t>
-  </si>
-  <si>
-    <t>CONTROL ESTADISTICO HUMEDAD RELATIVA</t>
   </si>
 </sst>
 </file>
@@ -798,26 +792,27 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-DO"/>
-              <a:t>Mes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-DO" baseline="0"/>
-              <a:t> 201 - Rchart</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-DO"/>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Graficas Humedad Relativa'!$AB$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Enero - Rchart</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1862,26 +1857,27 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-DO"/>
-              <a:t>Mes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-DO" baseline="0"/>
-              <a:t> 201 - Xbar</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-DO"/>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Graficas Humedad Relativa'!$AB$4</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Enero - Xbar</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3875,26 +3871,27 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-DO"/>
-              <a:t>Mes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-DO" baseline="0"/>
-              <a:t> 201 - Rchart</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-DO"/>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Graficas Humedad Relativa'!$AB$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Enero - Rchart</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5659,26 +5656,27 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-DO"/>
-              <a:t>Mes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-DO" baseline="0"/>
-              <a:t> 201 - Xbar</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-DO"/>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Graficas Humedad Relativa'!$AB$4</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Enero - Xbar</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -15229,7 +15227,7 @@
   <dimension ref="A1:AA411"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="N47" sqref="N47:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15346,8 +15344,9 @@
       <c r="X5" s="74"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="81" t="s">
-        <v>55</v>
+      <c r="A7" s="81" t="str">
+        <f>"CONTROL ESTADISTICO TEMPERATURA"&amp;" "&amp;UPPER(Mes!B7)</f>
+        <v>CONTROL ESTADISTICO TEMPERATURA ENERO</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -16374,13 +16373,14 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AC409"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="26" max="26" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -16445,6 +16445,10 @@
       <c r="X3" s="67"/>
       <c r="Y3" s="67"/>
       <c r="Z3" s="73"/>
+      <c r="AB3" t="str">
+        <f>Mes!B7&amp;" - Rchart"</f>
+        <v>Enero - Rchart</v>
+      </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66"/>
@@ -16473,6 +16477,10 @@
       <c r="X4" s="67"/>
       <c r="Y4" s="67"/>
       <c r="Z4" s="73"/>
+      <c r="AB4" t="str">
+        <f>Mes!B7&amp;" - Xbar"</f>
+        <v>Enero - Xbar</v>
+      </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="68"/>
@@ -16503,8 +16511,9 @@
       <c r="Z5" s="74"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
-        <v>56</v>
+      <c r="A6" s="81" t="str">
+        <f>"CONTROL ESTADISTICO HUMEDAD RELATIVA"&amp;" "&amp;UPPER(Mes!B7)</f>
+        <v>CONTROL ESTADISTICO HUMEDAD RELATIVA ENERO</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>

--- a/static/static/base.xlsx
+++ b/static/static/base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Huato App v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Huato App v2\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10C61B7-C264-4E6B-8070-4959DD1E28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9BD44D-3678-4E01-B658-E352B07E4574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>Laboratorio Ensayos de Materiales</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Agosto</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>T</t>
@@ -365,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -554,11 +551,53 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -568,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -687,9 +726,6 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,9 +736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -732,6 +765,12 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -747,22 +786,22 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,6 +818,15 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,57 +871,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1013,12 +1011,12 @@
           <c:yMode val="edge"/>
           <c:x val="0.14547360199822429"/>
           <c:y val="0.16762213235744167"/>
-          <c:w val="0.79979969338246093"/>
-          <c:h val="0.6746330938663252"/>
+          <c:w val="0.57923084574548434"/>
+          <c:h val="0.6440115365310759"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1254,7 +1252,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-837B-4BB2-8045-55F2144006ED}"/>
@@ -1268,8 +1266,10 @@
             <c:v>Límite Superior</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -1279,34 +1279,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Mes!$A$11:$A$41</c:f>
@@ -1416,102 +1390,102 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000027-837B-4BB2-8045-55F2144006ED}"/>
@@ -1525,41 +1499,17 @@
             <c:v>Límite Inferior</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Mes!$A$11:$A$41</c:f>
@@ -1669,105 +1619,2262 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000028-837B-4BB2-8045-55F2144006ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>σ (+)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$K$11:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D12-4402-A092-C7669B0D5925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2σ (+)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$L$11:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1D12-4402-A092-C7669B0D5925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>σ (-)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$M$11:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1D12-4402-A092-C7669B0D5925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2σ (-)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$N$11:$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1D12-4402-A092-C7669B0D5925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2126806543"/>
+        <c:axId val="2126808623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2126806543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="31"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Día</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126808623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2126808623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="17"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Temperatura</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126806543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75002077574127457"/>
+          <c:y val="0.11656365044326915"/>
+          <c:w val="0.24997922425872549"/>
+          <c:h val="0.75306848499242307"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Gráfica de Control</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> - Humedad</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14547360199822429"/>
+          <c:y val="0.16762213235744167"/>
+          <c:w val="0.59259865469317985"/>
+          <c:h val="0.68994387253395006"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Promedio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mes!$A$11:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$AQ$11:$AQ$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6846-4B61-B91D-91EAD0FA5814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Límite Superior</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mes!$A$11:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$AC$11:$AC$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6846-4B61-B91D-91EAD0FA5814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Límite Inferior</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mes!$A$11:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$AD$11:$AD$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6846-4B61-B91D-91EAD0FA5814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>σ (+)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$AE$11:$AE$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A4B7-4F22-9849-E9D0546E0BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2σ (+)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$AF$11:$AF$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A4B7-4F22-9849-E9D0546E0BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>σ (-)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$AG$11:$AG$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A4B7-4F22-9849-E9D0546E0BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2σ (-)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mes!$AH$11:$AH$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A4B7-4F22-9849-E9D0546E0BA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1906,1165 +4013,6 @@
         <c:axId val="2126808623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>Temperatura</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2126806543"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1200" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Gráfica</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1200" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> de Control - Humedad</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15875570992565829"/>
-          <c:y val="0.1867304267094482"/>
-          <c:w val="0.789309426525172"/>
-          <c:h val="0.63503083942133909"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Promedio</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Mes!$A$11:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Mes!$AQ$11:$AQ$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C959-4E5F-9904-DBD7B4FD6AE8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Límite Inferior</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Mes!$A$11:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Mes!$AD$11:$AD$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C959-4E5F-9904-DBD7B4FD6AE8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Límite Superior</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Mes!$A$11:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Mes!$AC$11:$AC$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C959-4E5F-9904-DBD7B4FD6AE8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2133119407"/>
-        <c:axId val="2133110255"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2133119407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="31"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>Día</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2133110255"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2133110255"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="40"/>
         </c:scaling>
@@ -3176,7 +4124,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133119407"/>
+        <c:crossAx val="2126806543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3188,6 +4136,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7500210378957386"/>
+          <c:y val="0.15369891936443794"/>
+          <c:w val="0.24997896210426146"/>
+          <c:h val="0.78007613596132197"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4429,26 +5418,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400538</xdr:colOff>
+      <xdr:colOff>394939</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>79129</xdr:rowOff>
+      <xdr:rowOff>162622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>488462</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185614</xdr:rowOff>
+      <xdr:colOff>478040</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5EA459-F2BD-2BF2-7A17-2F0EFAD50503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAEC948-DBEF-473E-8FAA-C4113172FE31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4765,7 +5756,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="82" zoomScaleNormal="52" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4816,10 +5807,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="51" t="str">
+      <c r="B4" s="50" t="str">
         <f>Mes!B7</f>
         <v>Agosto</v>
       </c>
@@ -4832,10 +5823,10 @@
       <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="3"/>
       <c r="D5" s="44"/>
       <c r="H5" s="69"/>
@@ -4858,404 +5849,417 @@
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="56" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="44"/>
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="75" t="s">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="77"/>
     </row>
-    <row r="36" spans="1:13" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="72" t="e">
+    <row r="37" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="72" t="e">
         <f>"Los límites de control para la temperatura son "&amp; ROUND(Mes!B44,2)&amp;"°C y "&amp;ROUND(Mes!B45,2)&amp;"°C."&amp;"
-    Temperatura máxima: "&amp;ROUND(K39,2)&amp;"ºC "&amp;L39&amp;" "&amp;M39&amp;"
-    Temperatura mínima: "&amp;ROUND(K40,2)&amp;"ºC "&amp;L40&amp;" "&amp;M40&amp;"
-    Humedad máxima: "&amp;ROUND(K41,2)&amp;"% "&amp;L41&amp;" "&amp;M41&amp;"
-    Humedad mínima: "&amp;ROUND(K42,2)&amp;"% "&amp;L42&amp;" "&amp;M42&amp;"
-Humedad fuera de los límites: 0
-Temperatura fuera de los límites: 0"</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="74"/>
+    Temperatura máxima: "&amp;ROUND(Mes!B55,2)&amp;"ºC "&amp;L39&amp;" del "&amp;M39&amp;"
+    Temperatura mínima: "&amp;ROUND(Mes!B56,2)&amp;"ºC "&amp;L40&amp;" del "&amp;M40&amp;"
+    Humedad máxima: "&amp;ROUND(Mes!X55,2)&amp;"% "&amp;L41&amp;" del "&amp;M41&amp;"
+    Humedad mínima: "&amp;ROUND(K42,2)&amp;"% "&amp;L42&amp;" del "&amp;M42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K38" t="s">
+    <row r="38" spans="1:13" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="83">
+        <f>A45</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
+      <c r="L38" t="s">
         <v>53</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>54</v>
-      </c>
-      <c r="M38" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="M39" s="60"/>
+      <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
+      <c r="A40" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="58"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60"/>
+      <c r="A41" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="58"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="58"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="60"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="58"/>
     </row>
     <row r="44" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+    </row>
     <row r="46" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="67" t="s">
@@ -5296,17 +6300,18 @@
       <c r="J49" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A47:J49"/>
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A38:J38"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.59055118110236227" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5323,8 +6328,8 @@
   </sheetPr>
   <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A6" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5373,146 +6378,146 @@
   <sheetData>
     <row r="1" spans="1:43" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="95"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="98"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="96"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="99"/>
     </row>
     <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="96"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="99"/>
     </row>
     <row r="5" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="97"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="100"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
@@ -5603,11 +6608,11 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -5625,11 +6630,11 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="99" t="s">
+      <c r="V9" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
@@ -5782,12 +6787,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="18" t="e">
-        <f>IF(E11&lt;&gt;"-",$B$44,NA())</f>
-        <v>#N/A</v>
+        <f>$B$44</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J11" s="18" t="e">
-        <f>IF(E11&lt;&gt;"-",$B$45,NA())</f>
-        <v>#N/A</v>
+        <f>$B$45</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K11" s="18" t="e">
         <f t="shared" ref="K11:K41" si="4">$B$48+$B$51</f>
@@ -5851,12 +6856,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AC11" s="18" t="e">
-        <f>IF(Y11&lt;&gt;"-",$X$44,NA())</f>
-        <v>#N/A</v>
+        <f>$X$44</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD11" s="18" t="e">
-        <f>IF(Y11&lt;&gt;"-",$X$45,NA())</f>
-        <v>#N/A</v>
+        <f>$X$45</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE11" s="19" t="e">
         <f t="shared" ref="AE11:AE41" si="17">$X$48+$X$51</f>
@@ -5900,11 +6905,11 @@
       <c r="AO11" s="13">
         <v>80</v>
       </c>
-      <c r="AP11" s="54" t="e">
+      <c r="AP11" s="52" t="e">
         <f>IF(E11&lt;&gt;"-",E11,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ11" s="54" t="e">
+      <c r="AQ11" s="52" t="e">
         <f>IF(Y11&lt;&gt;"-",Y11,NA())</f>
         <v>#N/A</v>
       </c>
@@ -5933,12 +6938,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="18" t="e">
-        <f t="shared" ref="I12:I41" si="26">IF(E12&lt;&gt;"-",$B$44,NA())</f>
-        <v>#N/A</v>
+        <f t="shared" ref="I12:I41" si="26">$B$44</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J12" s="18" t="e">
-        <f t="shared" ref="J12:J41" si="27">IF(E12&lt;&gt;"-",$B$45,NA())</f>
-        <v>#N/A</v>
+        <f t="shared" ref="J12:J41" si="27">$B$45</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K12" s="18" t="e">
         <f t="shared" si="4"/>
@@ -6002,12 +7007,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AC12" s="18" t="e">
-        <f t="shared" ref="AC12:AC41" si="28">IF(Y12&lt;&gt;"-",$X$44,NA())</f>
-        <v>#N/A</v>
+        <f t="shared" ref="AC12:AC41" si="28">$X$44</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD12" s="18" t="e">
-        <f t="shared" ref="AD12:AD41" si="29">IF(Y12&lt;&gt;"-",$X$45,NA())</f>
-        <v>#N/A</v>
+        <f t="shared" ref="AD12:AD41" si="29">$X$45</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE12" s="19" t="e">
         <f t="shared" si="17"/>
@@ -6051,11 +7056,11 @@
       <c r="AO12" s="13">
         <v>80</v>
       </c>
-      <c r="AP12" s="54" t="e">
+      <c r="AP12" s="52" t="e">
         <f t="shared" ref="AP12:AP41" si="30">IF(E12&lt;&gt;"-",E12,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ12" s="54" t="e">
+      <c r="AQ12" s="52" t="e">
         <f t="shared" ref="AQ12:AQ41" si="31">IF(Y12&lt;&gt;"-",Y12,NA())</f>
         <v>#N/A</v>
       </c>
@@ -6085,11 +7090,11 @@
       </c>
       <c r="I13" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J13" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="18" t="e">
         <f t="shared" si="4"/>
@@ -6154,11 +7159,11 @@
       </c>
       <c r="AC13" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE13" s="19" t="e">
         <f t="shared" si="17"/>
@@ -6202,11 +7207,11 @@
       <c r="AO13" s="13">
         <v>80</v>
       </c>
-      <c r="AP13" s="54" t="e">
+      <c r="AP13" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ13" s="54" t="e">
+      <c r="AQ13" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -6236,11 +7241,11 @@
       </c>
       <c r="I14" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J14" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K14" s="18" t="e">
         <f t="shared" si="4"/>
@@ -6305,11 +7310,11 @@
       </c>
       <c r="AC14" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD14" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE14" s="19" t="e">
         <f t="shared" si="17"/>
@@ -6353,11 +7358,11 @@
       <c r="AO14" s="13">
         <v>80</v>
       </c>
-      <c r="AP14" s="54" t="e">
+      <c r="AP14" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ14" s="54" t="e">
+      <c r="AQ14" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -6387,11 +7392,11 @@
       </c>
       <c r="I15" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J15" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K15" s="18" t="e">
         <f t="shared" si="4"/>
@@ -6456,11 +7461,11 @@
       </c>
       <c r="AC15" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD15" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="19" t="e">
         <f t="shared" si="17"/>
@@ -6504,11 +7509,11 @@
       <c r="AO15" s="13">
         <v>80</v>
       </c>
-      <c r="AP15" s="54" t="e">
+      <c r="AP15" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ15" s="54" t="e">
+      <c r="AQ15" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -6538,11 +7543,11 @@
       </c>
       <c r="I16" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J16" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K16" s="18" t="e">
         <f t="shared" si="4"/>
@@ -6607,11 +7612,11 @@
       </c>
       <c r="AC16" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD16" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE16" s="19" t="e">
         <f t="shared" si="17"/>
@@ -6655,11 +7660,11 @@
       <c r="AO16" s="13">
         <v>80</v>
       </c>
-      <c r="AP16" s="54" t="e">
+      <c r="AP16" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ16" s="54" t="e">
+      <c r="AQ16" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -6689,11 +7694,11 @@
       </c>
       <c r="I17" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J17" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K17" s="18" t="e">
         <f t="shared" si="4"/>
@@ -6758,11 +7763,11 @@
       </c>
       <c r="AC17" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE17" s="19" t="e">
         <f t="shared" si="17"/>
@@ -6806,11 +7811,11 @@
       <c r="AO17" s="13">
         <v>80</v>
       </c>
-      <c r="AP17" s="54" t="e">
+      <c r="AP17" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ17" s="54" t="e">
+      <c r="AQ17" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -6840,11 +7845,11 @@
       </c>
       <c r="I18" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J18" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K18" s="18" t="e">
         <f t="shared" si="4"/>
@@ -6909,11 +7914,11 @@
       </c>
       <c r="AC18" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD18" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE18" s="19" t="e">
         <f t="shared" si="17"/>
@@ -6957,11 +7962,11 @@
       <c r="AO18" s="13">
         <v>80</v>
       </c>
-      <c r="AP18" s="54" t="e">
+      <c r="AP18" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ18" s="54" t="e">
+      <c r="AQ18" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -6991,11 +7996,11 @@
       </c>
       <c r="I19" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="18" t="e">
         <f t="shared" si="4"/>
@@ -7060,11 +8065,11 @@
       </c>
       <c r="AC19" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD19" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE19" s="19" t="e">
         <f t="shared" si="17"/>
@@ -7108,11 +8113,11 @@
       <c r="AO19" s="13">
         <v>80</v>
       </c>
-      <c r="AP19" s="54" t="e">
+      <c r="AP19" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ19" s="54" t="e">
+      <c r="AQ19" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -7142,11 +8147,11 @@
       </c>
       <c r="I20" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J20" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" s="18" t="e">
         <f t="shared" si="4"/>
@@ -7211,11 +8216,11 @@
       </c>
       <c r="AC20" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD20" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE20" s="19" t="e">
         <f t="shared" si="17"/>
@@ -7259,11 +8264,11 @@
       <c r="AO20" s="13">
         <v>80</v>
       </c>
-      <c r="AP20" s="54" t="e">
+      <c r="AP20" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ20" s="54" t="e">
+      <c r="AQ20" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -7293,11 +8298,11 @@
       </c>
       <c r="I21" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J21" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K21" s="18" t="e">
         <f t="shared" si="4"/>
@@ -7362,11 +8367,11 @@
       </c>
       <c r="AC21" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD21" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE21" s="19" t="e">
         <f t="shared" si="17"/>
@@ -7410,11 +8415,11 @@
       <c r="AO21" s="13">
         <v>80</v>
       </c>
-      <c r="AP21" s="54" t="e">
+      <c r="AP21" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ21" s="54" t="e">
+      <c r="AQ21" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -7444,11 +8449,11 @@
       </c>
       <c r="I22" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J22" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K22" s="18" t="e">
         <f t="shared" si="4"/>
@@ -7513,11 +8518,11 @@
       </c>
       <c r="AC22" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD22" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE22" s="19" t="e">
         <f t="shared" si="17"/>
@@ -7561,11 +8566,11 @@
       <c r="AO22" s="13">
         <v>80</v>
       </c>
-      <c r="AP22" s="54" t="e">
+      <c r="AP22" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ22" s="54" t="e">
+      <c r="AQ22" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -7595,11 +8600,11 @@
       </c>
       <c r="I23" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J23" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K23" s="18" t="e">
         <f t="shared" si="4"/>
@@ -7664,11 +8669,11 @@
       </c>
       <c r="AC23" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD23" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE23" s="19" t="e">
         <f t="shared" si="17"/>
@@ -7712,11 +8717,11 @@
       <c r="AO23" s="13">
         <v>80</v>
       </c>
-      <c r="AP23" s="54" t="e">
+      <c r="AP23" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ23" s="54" t="e">
+      <c r="AQ23" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -7746,11 +8751,11 @@
       </c>
       <c r="I24" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J24" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K24" s="18" t="e">
         <f t="shared" si="4"/>
@@ -7815,11 +8820,11 @@
       </c>
       <c r="AC24" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD24" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE24" s="19" t="e">
         <f t="shared" si="17"/>
@@ -7863,11 +8868,11 @@
       <c r="AO24" s="13">
         <v>80</v>
       </c>
-      <c r="AP24" s="54" t="e">
+      <c r="AP24" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ24" s="54" t="e">
+      <c r="AQ24" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -7897,11 +8902,11 @@
       </c>
       <c r="I25" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J25" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K25" s="18" t="e">
         <f t="shared" si="4"/>
@@ -7966,11 +8971,11 @@
       </c>
       <c r="AC25" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD25" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE25" s="19" t="e">
         <f t="shared" si="17"/>
@@ -8014,11 +9019,11 @@
       <c r="AO25" s="13">
         <v>80</v>
       </c>
-      <c r="AP25" s="54" t="e">
+      <c r="AP25" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ25" s="54" t="e">
+      <c r="AQ25" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -8048,11 +9053,11 @@
       </c>
       <c r="I26" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J26" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K26" s="18" t="e">
         <f t="shared" si="4"/>
@@ -8117,11 +9122,11 @@
       </c>
       <c r="AC26" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD26" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE26" s="19" t="e">
         <f t="shared" si="17"/>
@@ -8165,11 +9170,11 @@
       <c r="AO26" s="13">
         <v>80</v>
       </c>
-      <c r="AP26" s="54" t="e">
+      <c r="AP26" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ26" s="54" t="e">
+      <c r="AQ26" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -8199,11 +9204,11 @@
       </c>
       <c r="I27" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J27" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K27" s="18" t="e">
         <f t="shared" si="4"/>
@@ -8268,11 +9273,11 @@
       </c>
       <c r="AC27" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD27" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE27" s="19" t="e">
         <f t="shared" si="17"/>
@@ -8316,11 +9321,11 @@
       <c r="AO27" s="13">
         <v>80</v>
       </c>
-      <c r="AP27" s="54" t="e">
+      <c r="AP27" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ27" s="54" t="e">
+      <c r="AQ27" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -8350,11 +9355,11 @@
       </c>
       <c r="I28" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J28" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K28" s="18" t="e">
         <f t="shared" si="4"/>
@@ -8419,11 +9424,11 @@
       </c>
       <c r="AC28" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD28" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE28" s="19" t="e">
         <f t="shared" si="17"/>
@@ -8467,11 +9472,11 @@
       <c r="AO28" s="13">
         <v>80</v>
       </c>
-      <c r="AP28" s="54" t="e">
+      <c r="AP28" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ28" s="54" t="e">
+      <c r="AQ28" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -8480,9 +9485,9 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -8501,11 +9506,11 @@
       </c>
       <c r="I29" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J29" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K29" s="18" t="e">
         <f t="shared" si="4"/>
@@ -8570,11 +9575,11 @@
       </c>
       <c r="AC29" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD29" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE29" s="19" t="e">
         <f t="shared" si="17"/>
@@ -8618,11 +9623,11 @@
       <c r="AO29" s="13">
         <v>80</v>
       </c>
-      <c r="AP29" s="54" t="e">
+      <c r="AP29" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ29" s="54" t="e">
+      <c r="AQ29" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -8652,11 +9657,11 @@
       </c>
       <c r="I30" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J30" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K30" s="18" t="e">
         <f t="shared" si="4"/>
@@ -8721,11 +9726,11 @@
       </c>
       <c r="AC30" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD30" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE30" s="19" t="e">
         <f t="shared" si="17"/>
@@ -8769,11 +9774,11 @@
       <c r="AO30" s="13">
         <v>80</v>
       </c>
-      <c r="AP30" s="54" t="e">
+      <c r="AP30" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ30" s="54" t="e">
+      <c r="AQ30" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -8803,11 +9808,11 @@
       </c>
       <c r="I31" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J31" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K31" s="18" t="e">
         <f t="shared" si="4"/>
@@ -8872,11 +9877,11 @@
       </c>
       <c r="AC31" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD31" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE31" s="19" t="e">
         <f t="shared" si="17"/>
@@ -8920,11 +9925,11 @@
       <c r="AO31" s="13">
         <v>80</v>
       </c>
-      <c r="AP31" s="54" t="e">
+      <c r="AP31" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ31" s="54" t="e">
+      <c r="AQ31" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -8933,9 +9938,9 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -8954,11 +9959,11 @@
       </c>
       <c r="I32" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J32" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K32" s="18" t="e">
         <f t="shared" si="4"/>
@@ -9023,11 +10028,11 @@
       </c>
       <c r="AC32" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD32" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE32" s="19" t="e">
         <f t="shared" si="17"/>
@@ -9071,11 +10076,11 @@
       <c r="AO32" s="13">
         <v>80</v>
       </c>
-      <c r="AP32" s="54" t="e">
+      <c r="AP32" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ32" s="54" t="e">
+      <c r="AQ32" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -9084,9 +10089,9 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -9105,11 +10110,11 @@
       </c>
       <c r="I33" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J33" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K33" s="18" t="e">
         <f t="shared" si="4"/>
@@ -9174,11 +10179,11 @@
       </c>
       <c r="AC33" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD33" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE33" s="19" t="e">
         <f t="shared" si="17"/>
@@ -9222,11 +10227,11 @@
       <c r="AO33" s="13">
         <v>80</v>
       </c>
-      <c r="AP33" s="54" t="e">
+      <c r="AP33" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ33" s="54" t="e">
+      <c r="AQ33" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -9235,9 +10240,9 @@
       <c r="A34" s="16">
         <v>24</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -9256,11 +10261,11 @@
       </c>
       <c r="I34" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J34" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K34" s="18" t="e">
         <f t="shared" si="4"/>
@@ -9325,11 +10330,11 @@
       </c>
       <c r="AC34" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD34" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE34" s="19" t="e">
         <f t="shared" si="17"/>
@@ -9373,11 +10378,11 @@
       <c r="AO34" s="13">
         <v>80</v>
       </c>
-      <c r="AP34" s="54" t="e">
+      <c r="AP34" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ34" s="54" t="e">
+      <c r="AQ34" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -9386,9 +10391,9 @@
       <c r="A35" s="16">
         <v>25</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -9407,11 +10412,11 @@
       </c>
       <c r="I35" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J35" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K35" s="18" t="e">
         <f t="shared" si="4"/>
@@ -9476,11 +10481,11 @@
       </c>
       <c r="AC35" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD35" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE35" s="19" t="e">
         <f t="shared" si="17"/>
@@ -9524,11 +10529,11 @@
       <c r="AO35" s="13">
         <v>80</v>
       </c>
-      <c r="AP35" s="54" t="e">
+      <c r="AP35" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ35" s="54" t="e">
+      <c r="AQ35" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -9537,9 +10542,9 @@
       <c r="A36" s="16">
         <v>26</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -9558,11 +10563,11 @@
       </c>
       <c r="I36" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J36" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K36" s="18" t="e">
         <f t="shared" si="4"/>
@@ -9627,11 +10632,11 @@
       </c>
       <c r="AC36" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD36" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE36" s="19" t="e">
         <f t="shared" si="17"/>
@@ -9675,11 +10680,11 @@
       <c r="AO36" s="13">
         <v>80</v>
       </c>
-      <c r="AP36" s="54" t="e">
+      <c r="AP36" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ36" s="54" t="e">
+      <c r="AQ36" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -9709,11 +10714,11 @@
       </c>
       <c r="I37" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J37" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K37" s="18" t="e">
         <f t="shared" si="4"/>
@@ -9778,11 +10783,11 @@
       </c>
       <c r="AC37" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD37" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE37" s="19" t="e">
         <f t="shared" si="17"/>
@@ -9826,11 +10831,11 @@
       <c r="AO37" s="13">
         <v>80</v>
       </c>
-      <c r="AP37" s="54" t="e">
+      <c r="AP37" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ37" s="54" t="e">
+      <c r="AQ37" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -9860,11 +10865,11 @@
       </c>
       <c r="I38" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J38" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K38" s="18" t="e">
         <f t="shared" si="4"/>
@@ -9929,11 +10934,11 @@
       </c>
       <c r="AC38" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD38" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE38" s="19" t="e">
         <f t="shared" si="17"/>
@@ -9977,11 +10982,11 @@
       <c r="AO38" s="13">
         <v>80</v>
       </c>
-      <c r="AP38" s="54" t="e">
+      <c r="AP38" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ38" s="54" t="e">
+      <c r="AQ38" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -10011,11 +11016,11 @@
       </c>
       <c r="I39" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J39" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K39" s="18" t="e">
         <f t="shared" si="4"/>
@@ -10080,11 +11085,11 @@
       </c>
       <c r="AC39" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD39" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE39" s="19" t="e">
         <f t="shared" si="17"/>
@@ -10128,11 +11133,11 @@
       <c r="AO39" s="13">
         <v>80</v>
       </c>
-      <c r="AP39" s="54" t="e">
+      <c r="AP39" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ39" s="54" t="e">
+      <c r="AQ39" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -10141,9 +11146,9 @@
       <c r="A40" s="16">
         <v>30</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -10162,11 +11167,11 @@
       </c>
       <c r="I40" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J40" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K40" s="18" t="e">
         <f t="shared" si="4"/>
@@ -10231,11 +11236,11 @@
       </c>
       <c r="AC40" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD40" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE40" s="19" t="e">
         <f t="shared" si="17"/>
@@ -10279,11 +11284,11 @@
       <c r="AO40" s="13">
         <v>80</v>
       </c>
-      <c r="AP40" s="54" t="e">
+      <c r="AP40" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ40" s="54" t="e">
+      <c r="AQ40" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -10292,9 +11297,9 @@
       <c r="A41" s="16">
         <v>31</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -10313,11 +11318,11 @@
       </c>
       <c r="I41" s="18" t="e">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J41" s="18" t="e">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K41" s="18" t="e">
         <f t="shared" si="4"/>
@@ -10361,9 +11366,9 @@
       <c r="U41" s="13">
         <v>35</v>
       </c>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
       <c r="Y41" s="18" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
@@ -10382,11 +11387,11 @@
       </c>
       <c r="AC41" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD41" s="18" t="e">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE41" s="19" t="e">
         <f t="shared" si="17"/>
@@ -10430,11 +11435,11 @@
       <c r="AO41" s="13">
         <v>80</v>
       </c>
-      <c r="AP41" s="54" t="e">
+      <c r="AP41" s="52" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ41" s="54" t="e">
+      <c r="AQ41" s="52" t="e">
         <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
@@ -10507,8 +11512,8 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
+      <c r="AP43" s="52"/>
+      <c r="AQ43" s="52"/>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
@@ -10550,9 +11555,9 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
+      <c r="AO44" s="53"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52"/>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
@@ -10594,9 +11599,9 @@
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
-      <c r="AO45" s="55"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
@@ -10638,9 +11643,9 @@
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
-      <c r="AO46" s="55"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54"/>
+      <c r="AO46" s="53"/>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
@@ -10682,9 +11687,9 @@
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
-      <c r="AO47" s="55"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="54"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="52"/>
+      <c r="AQ47" s="52"/>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
@@ -10726,9 +11731,9 @@
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
-      <c r="AO48" s="55"/>
-      <c r="AP48" s="54"/>
-      <c r="AQ48" s="54"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="52"/>
+      <c r="AQ48" s="52"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
@@ -10770,9 +11775,9 @@
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
-      <c r="AO49" s="55"/>
-      <c r="AP49" s="54"/>
-      <c r="AQ49" s="54"/>
+      <c r="AO49" s="53"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
@@ -10812,9 +11817,9 @@
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
-      <c r="AO50" s="55"/>
-      <c r="AP50" s="54"/>
-      <c r="AQ50" s="54"/>
+      <c r="AO50" s="53"/>
+      <c r="AP50" s="52"/>
+      <c r="AQ50" s="52"/>
     </row>
     <row r="51" spans="1:43" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
@@ -10856,9 +11861,9 @@
       <c r="AA51" s="12"/>
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="54"/>
-      <c r="AQ51" s="54"/>
+      <c r="AO51" s="53"/>
+      <c r="AP51" s="52"/>
+      <c r="AQ51" s="52"/>
     </row>
     <row r="52" spans="1:43" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
@@ -10900,9 +11905,9 @@
       <c r="AA52" s="12"/>
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
-      <c r="AO52" s="55"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="54"/>
+      <c r="AO52" s="53"/>
+      <c r="AP52" s="52"/>
+      <c r="AQ52" s="52"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
@@ -10942,9 +11947,9 @@
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
-      <c r="AO53" s="55"/>
-      <c r="AP53" s="54"/>
-      <c r="AQ53" s="54"/>
+      <c r="AO53" s="53"/>
+      <c r="AP53" s="52"/>
+      <c r="AQ53" s="52"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
@@ -10984,9 +11989,9 @@
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
-      <c r="AO54" s="55"/>
-      <c r="AP54" s="54"/>
-      <c r="AQ54" s="54"/>
+      <c r="AO54" s="53"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="52"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
@@ -11028,9 +12033,9 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
-      <c r="AO55" s="55"/>
-      <c r="AP55" s="54"/>
-      <c r="AQ55" s="54"/>
+      <c r="AO55" s="53"/>
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="52"/>
     </row>
     <row r="56" spans="1:43" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
@@ -11072,9 +12077,9 @@
       <c r="AA56" s="12"/>
       <c r="AB56" s="12"/>
       <c r="AC56" s="12"/>
-      <c r="AO56" s="55"/>
-      <c r="AP56" s="54"/>
-      <c r="AQ56" s="54"/>
+      <c r="AO56" s="53"/>
+      <c r="AP56" s="52"/>
+      <c r="AQ56" s="52"/>
     </row>
     <row r="57" spans="1:43" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -11124,9 +12129,9 @@
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
-      <c r="AO57" s="55"/>
-      <c r="AP57" s="54"/>
-      <c r="AQ57" s="54"/>
+      <c r="AO57" s="53"/>
+      <c r="AP57" s="52"/>
+      <c r="AQ57" s="52"/>
     </row>
     <row r="58" spans="1:43" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="38" t="s">
@@ -11176,9 +12181,9 @@
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
-      <c r="AO58" s="55"/>
-      <c r="AP58" s="54"/>
-      <c r="AQ58" s="54"/>
+      <c r="AO58" s="53"/>
+      <c r="AP58" s="52"/>
+      <c r="AQ58" s="52"/>
     </row>
     <row r="59" spans="1:43" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42"/>
@@ -11213,85 +12218,85 @@
       <c r="AD59" s="42"/>
       <c r="AE59" s="42"/>
       <c r="AF59" s="42"/>
-      <c r="AO59" s="55"/>
-      <c r="AP59" s="54"/>
-      <c r="AQ59" s="54"/>
+      <c r="AO59" s="53"/>
+      <c r="AP59" s="52"/>
+      <c r="AQ59" s="52"/>
     </row>
     <row r="60" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="84"/>
-      <c r="W60" s="84"/>
-      <c r="X60" s="84"/>
-      <c r="Y60" s="84"/>
-      <c r="Z60" s="84"/>
-      <c r="AA60" s="84"/>
-      <c r="AB60" s="84"/>
-      <c r="AC60" s="84"/>
-      <c r="AD60" s="84"/>
-      <c r="AE60" s="84"/>
-      <c r="AF60" s="84"/>
-      <c r="AO60" s="55"/>
-      <c r="AP60" s="54"/>
-      <c r="AQ60" s="54"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="87"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="87"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="87"/>
+      <c r="U60" s="87"/>
+      <c r="V60" s="87"/>
+      <c r="W60" s="87"/>
+      <c r="X60" s="87"/>
+      <c r="Y60" s="87"/>
+      <c r="Z60" s="87"/>
+      <c r="AA60" s="87"/>
+      <c r="AB60" s="87"/>
+      <c r="AC60" s="87"/>
+      <c r="AD60" s="87"/>
+      <c r="AE60" s="87"/>
+      <c r="AF60" s="87"/>
+      <c r="AO60" s="53"/>
+      <c r="AP60" s="52"/>
+      <c r="AQ60" s="52"/>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-      <c r="Q61" s="85"/>
-      <c r="R61" s="85"/>
-      <c r="S61" s="85"/>
-      <c r="T61" s="85"/>
-      <c r="U61" s="85"/>
-      <c r="V61" s="85"/>
-      <c r="W61" s="85"/>
-      <c r="X61" s="85"/>
-      <c r="Y61" s="85"/>
-      <c r="Z61" s="85"/>
-      <c r="AA61" s="85"/>
-      <c r="AB61" s="85"/>
-      <c r="AC61" s="85"/>
-      <c r="AD61" s="85"/>
-      <c r="AE61" s="85"/>
-      <c r="AF61" s="85"/>
-      <c r="AO61" s="55"/>
-      <c r="AP61" s="54"/>
-      <c r="AQ61" s="54"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
+      <c r="AC61" s="88"/>
+      <c r="AD61" s="88"/>
+      <c r="AE61" s="88"/>
+      <c r="AF61" s="88"/>
+      <c r="AO61" s="53"/>
+      <c r="AP61" s="52"/>
+      <c r="AQ61" s="52"/>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
@@ -11326,92 +12331,91 @@
       <c r="AD62" s="43"/>
       <c r="AE62" s="43"/>
       <c r="AF62" s="43"/>
-      <c r="AO62" s="55"/>
-      <c r="AP62" s="54"/>
-      <c r="AQ62" s="54"/>
+      <c r="AO62" s="53"/>
+      <c r="AP62" s="52"/>
+      <c r="AQ62" s="52"/>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="54"/>
-      <c r="AQ63" s="54"/>
+      <c r="AO63" s="53"/>
+      <c r="AP63" s="52"/>
+      <c r="AQ63" s="52"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AO64" s="55"/>
-      <c r="AP64" s="54"/>
-      <c r="AQ64" s="54"/>
+      <c r="AO64" s="53"/>
+      <c r="AP64" s="52"/>
+      <c r="AQ64" s="52"/>
     </row>
     <row r="65" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO65" s="55"/>
-      <c r="AP65" s="54"/>
-      <c r="AQ65" s="54"/>
+      <c r="AO65" s="53"/>
+      <c r="AP65" s="52"/>
+      <c r="AQ65" s="52"/>
     </row>
     <row r="66" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO66" s="55"/>
-      <c r="AP66" s="54"/>
-      <c r="AQ66" s="54"/>
+      <c r="AO66" s="53"/>
+      <c r="AP66" s="52"/>
+      <c r="AQ66" s="52"/>
     </row>
     <row r="67" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO67" s="55"/>
-      <c r="AP67" s="54"/>
-      <c r="AQ67" s="54"/>
+      <c r="AO67" s="53"/>
+      <c r="AP67" s="52"/>
+      <c r="AQ67" s="52"/>
     </row>
     <row r="68" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO68" s="55"/>
-      <c r="AP68" s="54"/>
-      <c r="AQ68" s="54"/>
+      <c r="AO68" s="53"/>
+      <c r="AP68" s="52"/>
+      <c r="AQ68" s="52"/>
     </row>
     <row r="69" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO69" s="55"/>
-      <c r="AP69" s="54"/>
-      <c r="AQ69" s="54"/>
+      <c r="AO69" s="53"/>
+      <c r="AP69" s="52"/>
+      <c r="AQ69" s="52"/>
     </row>
     <row r="70" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO70" s="55"/>
-      <c r="AP70" s="54"/>
-      <c r="AQ70" s="54"/>
+      <c r="AO70" s="53"/>
+      <c r="AP70" s="52"/>
+      <c r="AQ70" s="52"/>
     </row>
     <row r="71" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO71" s="55"/>
-      <c r="AP71" s="54"/>
-      <c r="AQ71" s="54"/>
+      <c r="AO71" s="53"/>
+      <c r="AP71" s="52"/>
+      <c r="AQ71" s="52"/>
     </row>
     <row r="72" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO72" s="55"/>
-      <c r="AP72" s="54"/>
-      <c r="AQ72" s="54"/>
+      <c r="AO72" s="53"/>
+      <c r="AP72" s="52"/>
+      <c r="AQ72" s="52"/>
     </row>
     <row r="73" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO73" s="55"/>
-      <c r="AP73" s="54"/>
-      <c r="AQ73" s="54"/>
+      <c r="AO73" s="53"/>
+      <c r="AP73" s="52"/>
+      <c r="AQ73" s="52"/>
     </row>
     <row r="74" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AO74" s="55"/>
-      <c r="AP74" s="54"/>
-      <c r="AQ74" s="54"/>
+      <c r="AO74" s="53"/>
+      <c r="AP74" s="52"/>
+      <c r="AQ74" s="52"/>
     </row>
     <row r="75" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AP75" s="54"/>
-      <c r="AQ75" s="54"/>
+      <c r="AP75" s="52"/>
+      <c r="AQ75" s="52"/>
     </row>
     <row r="76" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AP76" s="54"/>
-      <c r="AQ76" s="54"/>
+      <c r="AP76" s="52"/>
+      <c r="AQ76" s="52"/>
     </row>
     <row r="77" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AP77" s="54"/>
-      <c r="AQ77" s="54"/>
+      <c r="AP77" s="52"/>
+      <c r="AQ77" s="52"/>
     </row>
     <row r="78" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AP78" s="54"/>
-      <c r="AQ78" s="54"/>
+      <c r="AP78" s="52"/>
+      <c r="AQ78" s="52"/>
     </row>
     <row r="79" spans="41:43" x14ac:dyDescent="0.3">
-      <c r="AP79" s="54"/>
-      <c r="AQ79" s="54"/>
+      <c r="AP79" s="52"/>
+      <c r="AQ79" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IRhbKgDvlkwnK7YcvQKo3jfl6eo6EBu/MHz/Izqso6MlKlM8/0c1cedsBLimUxEbYkPipPduazAHvDKm1I3jlA==" saltValue="yWvxxhUnpWxxNe8um9KCTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="A60:AF61"/>
     <mergeCell ref="A2:B5"/>
@@ -11422,93 +12426,33 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="C42:D42">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="notBetween">
       <formula>10</formula>
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:D11 B16:D17 B23:D24 B30:D31">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="notBetween">
+  <conditionalFormatting sqref="B11:D41">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="notBetween">
       <formula>10</formula>
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:D39">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="notBetween">
+  <conditionalFormatting sqref="V11:X35">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
       <formula>10</formula>
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X11 V16:X17 V23:X24 V30:X31">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="notBetween">
-      <formula>10</formula>
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V37:X39">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="notBetween">
-      <formula>10</formula>
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:D15">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="notBetween">
+  <conditionalFormatting sqref="V41:X41">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
       <formula>10</formula>
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:D22">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notBetween">
+  <conditionalFormatting sqref="V36:X40">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>10</formula>
       <formula>35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:D29">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="notBetween">
-      <formula>10</formula>
-      <formula>35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D36">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notBetween">
-      <formula>10</formula>
-      <formula>35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:D41">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notBetween">
-      <formula>10</formula>
-      <formula>35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12:X15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notBetween">
-      <formula>10</formula>
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V18:X22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
-      <formula>10</formula>
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25:X29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
-      <formula>10</formula>
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32:X36">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
-      <formula>10</formula>
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:X41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
-      <formula>10</formula>
-      <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
